--- a/FORM F - GRATUITY NOMINATION FORM 1 (1).xlsx
+++ b/FORM F - GRATUITY NOMINATION FORM 1 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hexawareonline.sharepoint.com/teams/SumitM-Hexaware/Shared Documents/General/PF Matter/Forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{114C78CE-9DDF-4F17-BCFE-4D5819F5C973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A7062AC-AC48-44D1-8845-F77D9366FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{6005330F-6FC3-4596-AE49-B9DA2205163B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>Guidelines for filling Form no. F (GRATUITY Nomination Form)</t>
   </si>
@@ -293,19 +293,22 @@
     <t>SANGANER JAIPUR 302029 RAJASTHAN</t>
   </si>
   <si>
-    <t>SANAPALA THRISHUL</t>
-  </si>
-  <si>
-    <t>VISHWAS PG SIPCOT IT PARK</t>
+    <t>PRIYAM MISHRA</t>
+  </si>
+  <si>
+    <t>MOKSHA LADIES HOSTEL SIPCOT IT PARK</t>
   </si>
   <si>
     <t>SIRUSERI CHENNAI TAMIL NADU</t>
   </si>
   <si>
-    <t>ASHOK NATARAJAN</t>
-  </si>
-  <si>
-    <t>PASANGA PARADISE PG EGATTUR</t>
+    <t>KALPIT KHANDELWAL</t>
+  </si>
+  <si>
+    <t>9A EMERALD Q BLOCK OLYMPIA OPALINE SEQUEL</t>
+  </si>
+  <si>
+    <t>NAVALUR CHENNAI TAMIL NADU</t>
   </si>
 </sst>
 </file>
@@ -537,141 +540,165 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -694,40 +721,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="9" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1450,39 +1453,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="15" customHeight="1">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="27" t="s">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="27"/>
+      <c r="S5" s="22"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1">
       <c r="C6" s="10"/>
@@ -1490,67 +1493,67 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1">
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1">
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="3:19" ht="15" customHeight="1">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="3:19" ht="15" customHeight="1">
       <c r="C10" s="2"/>
@@ -1572,179 +1575,179 @@
       <c r="S10" s="2"/>
     </row>
     <row r="12" spans="3:19" ht="42.75" customHeight="1">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
     </row>
     <row r="13" spans="3:19" ht="7.5" customHeight="1"/>
     <row r="14" spans="3:19" ht="12" customHeight="1">
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="61" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
     </row>
     <row r="15" spans="3:19" ht="39.75" customHeight="1">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="3:19" ht="15" customHeight="1">
       <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1">
       <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1">
       <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1">
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1">
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1">
       <c r="D21" s="8"/>
@@ -1783,220 +1786,220 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="3:19" ht="15" customHeight="1">
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="25" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57" t="s">
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="57" t="s">
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="59"/>
-      <c r="O25" s="57" t="s">
+      <c r="N25" s="33"/>
+      <c r="O25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
     </row>
     <row r="26" spans="3:19" ht="12.75" customHeight="1">
-      <c r="C26" s="45">
+      <c r="C26" s="41">
         <v>1</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46">
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42">
         <v>2</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49">
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45">
         <v>3</v>
       </c>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="49">
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="45">
         <v>4</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="49">
+      <c r="N26" s="47"/>
+      <c r="O26" s="45">
         <v>5</v>
       </c>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="47"/>
     </row>
     <row r="27" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="39" t="s">
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="40"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="42" t="s">
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="44">
+      <c r="N27" s="39"/>
+      <c r="O27" s="40">
         <v>0.5</v>
       </c>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="41"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
     </row>
     <row r="28" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="39" t="s">
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="42" t="s">
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="43"/>
-      <c r="O28" s="44">
+      <c r="N28" s="39"/>
+      <c r="O28" s="40">
         <v>0.5</v>
       </c>
-      <c r="P28" s="40"/>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="41"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="37"/>
     </row>
     <row r="29" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39" t="s">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="39" t="s">
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="40"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="42" t="s">
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="N29" s="43"/>
-      <c r="O29" s="39" t="s">
+      <c r="N29" s="39"/>
+      <c r="O29" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="41"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="37"/>
     </row>
     <row r="30" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39" t="s">
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="39" t="s">
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="40"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="42" t="s">
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="N30" s="43"/>
-      <c r="O30" s="39" t="s">
+      <c r="N30" s="39"/>
+      <c r="O30" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="41"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="37"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1">
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
     </row>
     <row r="34" spans="3:19" ht="6" customHeight="1">
       <c r="C34" s="5"/>
@@ -2028,19 +2031,19 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="29" t="s">
+      <c r="I35" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
     </row>
     <row r="36" spans="3:19" ht="18" customHeight="1">
       <c r="C36" s="15">
@@ -2053,19 +2056,19 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
-      <c r="S36" s="29"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
     </row>
     <row r="37" spans="3:19" ht="18" customHeight="1">
       <c r="C37" s="15">
@@ -2078,19 +2081,19 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
-      <c r="I37" s="29" t="s">
+      <c r="I37" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="29"/>
-      <c r="S37" s="29"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
     </row>
     <row r="38" spans="3:19" ht="18" customHeight="1">
       <c r="C38" s="15">
@@ -2103,19 +2106,19 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="49"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
     </row>
     <row r="39" spans="3:19" ht="18" customHeight="1">
       <c r="C39" s="15">
@@ -2128,19 +2131,19 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
     </row>
     <row r="40" spans="3:19" ht="18" customHeight="1">
       <c r="C40" s="15">
@@ -2153,19 +2156,19 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="29" t="s">
+      <c r="I40" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="49"/>
     </row>
     <row r="41" spans="3:19" ht="18" customHeight="1">
       <c r="C41" s="15">
@@ -2178,19 +2181,19 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="36">
+      <c r="I41" s="50">
         <v>44358</v>
       </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="50"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="50"/>
+      <c r="P41" s="50"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
     </row>
     <row r="42" spans="3:19" ht="18" customHeight="1">
       <c r="C42" s="15">
@@ -2203,19 +2206,19 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="29" t="s">
+      <c r="I42" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="49"/>
+      <c r="S42" s="49"/>
     </row>
     <row r="43" spans="3:19" ht="18" customHeight="1">
       <c r="C43" s="15"/>
@@ -2224,81 +2227,81 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="29" t="s">
+      <c r="I43" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="29"/>
-      <c r="S43" s="29"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="49"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="49"/>
+      <c r="S43" s="49"/>
     </row>
     <row r="44" spans="3:19" ht="7.5" customHeight="1"/>
     <row r="46" spans="3:19" ht="15" customHeight="1">
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
     </row>
     <row r="47" spans="3:19" ht="15" customHeight="1">
       <c r="D47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
     </row>
     <row r="48" spans="3:19" ht="15" customHeight="1">
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
     </row>
     <row r="49" spans="3:19" ht="15" customHeight="1">
       <c r="C49" s="4"/>
       <c r="D49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="48">
         <v>44359</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
     </row>
     <row r="50" spans="3:19" ht="15" customHeight="1">
       <c r="C50" s="4"/>
@@ -2318,25 +2321,25 @@
       <c r="S50" s="6"/>
     </row>
     <row r="51" spans="3:19" ht="15" customHeight="1">
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
     </row>
     <row r="52" spans="3:19" ht="12">
       <c r="C52" s="14"/>
@@ -2358,13 +2361,13 @@
       <c r="S52" s="16"/>
     </row>
     <row r="53" spans="3:19" ht="12">
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
@@ -2379,13 +2382,13 @@
       <c r="S53" s="16"/>
     </row>
     <row r="54" spans="3:19" ht="12">
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
@@ -2425,14 +2428,14 @@
       <c r="D56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="8" t="s">
@@ -2449,44 +2452,44 @@
       <c r="D57" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
     </row>
     <row r="58" spans="3:19" ht="18" customHeight="1">
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
+      <c r="M58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="55"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
     </row>
     <row r="59" spans="3:19" ht="12">
       <c r="C59" s="7"/>
@@ -2514,14 +2517,14 @@
       <c r="D60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="8" t="s">
@@ -2538,44 +2541,44 @@
       <c r="D61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="57"/>
     </row>
     <row r="62" spans="3:19" ht="18" customHeight="1">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="57"/>
+      <c r="S62" s="57"/>
     </row>
     <row r="63" spans="3:19" ht="12">
       <c r="C63" s="7"/>
@@ -2601,11 +2604,11 @@
       <c r="D64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -2642,11 +2645,11 @@
       <c r="D66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="48">
         <v>44359</v>
       </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -2678,46 +2681,46 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="3:23" ht="15" customHeight="1">
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
     </row>
     <row r="69" spans="3:23" ht="35.25" customHeight="1">
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
     </row>
     <row r="70" spans="3:23" ht="12">
       <c r="C70" s="7"/>
@@ -2747,13 +2750,13 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="32"/>
+      <c r="M71" s="58"/>
+      <c r="N71" s="58"/>
+      <c r="O71" s="58"/>
+      <c r="P71" s="58"/>
+      <c r="Q71" s="58"/>
+      <c r="R71" s="58"/>
+      <c r="S71" s="58"/>
     </row>
     <row r="72" spans="3:23" ht="15" customHeight="1">
       <c r="C72" s="4"/>
@@ -2764,13 +2767,13 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
+      <c r="Q72" s="58"/>
+      <c r="R72" s="58"/>
+      <c r="S72" s="58"/>
     </row>
     <row r="73" spans="3:23" ht="15" customHeight="1">
       <c r="C73" s="4"/>
@@ -2781,36 +2784,36 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="58"/>
+      <c r="P73" s="58"/>
+      <c r="Q73" s="58"/>
+      <c r="R73" s="58"/>
+      <c r="S73" s="58"/>
     </row>
     <row r="74" spans="3:23" ht="12">
       <c r="C74" s="4"/>
       <c r="D74" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="33"/>
+      <c r="F74" s="59"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="M74" s="22" t="s">
+      <c r="M74" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
     </row>
     <row r="75" spans="3:23" ht="15" customHeight="1">
       <c r="C75" s="4"/>
@@ -2821,17 +2824,17 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="M75" s="22" t="s">
+      <c r="M75" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="N75" s="22"/>
-      <c r="O75" s="28" t="s">
+      <c r="N75" s="23"/>
+      <c r="O75" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
       <c r="W75"/>
     </row>
     <row r="76" spans="3:23" ht="15" customHeight="1">
@@ -2839,67 +2842,67 @@
       <c r="D76" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E76" s="60">
         <v>44362</v>
       </c>
-      <c r="F76" s="21"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="M76" s="22" t="s">
+      <c r="M76" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="N76" s="22"/>
-      <c r="O76" s="23" t="s">
+      <c r="N76" s="23"/>
+      <c r="O76" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="23"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
     </row>
     <row r="78" spans="3:23" ht="15" customHeight="1">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="25"/>
-      <c r="S78" s="25"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="53"/>
+      <c r="R78" s="53"/>
+      <c r="S78" s="53"/>
     </row>
     <row r="79" spans="3:23" ht="12">
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
     </row>
     <row r="80" spans="3:23" ht="12">
       <c r="C80" s="7"/>
@@ -2921,100 +2924,111 @@
       <c r="S80" s="6"/>
     </row>
     <row r="81" spans="3:19" ht="15" customHeight="1">
-      <c r="M81" s="26"/>
-      <c r="N81" s="26"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="26"/>
-      <c r="Q81" s="26"/>
-      <c r="R81" s="26"/>
-      <c r="S81" s="26"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
     </row>
     <row r="82" spans="3:19" ht="15" customHeight="1">
       <c r="D82" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="26"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="26"/>
-      <c r="Q82" s="26"/>
-      <c r="R82" s="26"/>
-      <c r="S82" s="26"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
     </row>
     <row r="83" spans="3:19" ht="15" customHeight="1">
       <c r="D83" s="6"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="26"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="26"/>
-      <c r="Q83" s="26"/>
-      <c r="R83" s="26"/>
-      <c r="S83" s="26"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
     </row>
     <row r="84" spans="3:19" ht="15" customHeight="1">
       <c r="C84" s="4"/>
       <c r="D84" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="48">
         <v>44359</v>
       </c>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
-      <c r="M84" s="20" t="s">
+      <c r="M84" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="r/oe7p/O2DGICK1g7eK8XFHHsVRY2Nlx1mxpe3EGTu2nJjWdZKMhdnsjLfTCbIjCK2ZpHb/3Z37vDvlbWfc2BA==" saltValue="W9QYxu3SxZSRkxQDHF4j2Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="89">
-    <mergeCell ref="D17:S17"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="C7:S7"/>
-    <mergeCell ref="C8:S8"/>
-    <mergeCell ref="C9:S9"/>
-    <mergeCell ref="C12:S12"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:S14"/>
-    <mergeCell ref="C15:S15"/>
-    <mergeCell ref="D16:S16"/>
-    <mergeCell ref="D18:S18"/>
-    <mergeCell ref="D19:S19"/>
-    <mergeCell ref="D20:S20"/>
-    <mergeCell ref="C23:S23"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:S25"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="M84:S84"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:S76"/>
+    <mergeCell ref="C78:S78"/>
+    <mergeCell ref="C79:S79"/>
+    <mergeCell ref="M81:S83"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="M61:S62"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="C68:S68"/>
+    <mergeCell ref="C69:S69"/>
+    <mergeCell ref="M71:S73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="M74:S74"/>
+    <mergeCell ref="C51:S51"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="M57:S58"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="I35:S35"/>
+    <mergeCell ref="I36:S36"/>
+    <mergeCell ref="I37:S37"/>
+    <mergeCell ref="I38:S38"/>
+    <mergeCell ref="I39:S39"/>
+    <mergeCell ref="I40:S40"/>
+    <mergeCell ref="I41:S41"/>
+    <mergeCell ref="I42:S42"/>
+    <mergeCell ref="I43:S43"/>
+    <mergeCell ref="M46:S48"/>
+    <mergeCell ref="E47:G47"/>
     <mergeCell ref="C33:S33"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="F28:I28"/>
@@ -3031,48 +3045,37 @@
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:S30"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="I35:S35"/>
-    <mergeCell ref="I36:S36"/>
-    <mergeCell ref="I37:S37"/>
-    <mergeCell ref="I38:S38"/>
-    <mergeCell ref="I39:S39"/>
-    <mergeCell ref="I40:S40"/>
-    <mergeCell ref="I41:S41"/>
-    <mergeCell ref="I42:S42"/>
-    <mergeCell ref="I43:S43"/>
-    <mergeCell ref="M46:S48"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="C51:S51"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="M57:S58"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="M61:S62"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="C68:S68"/>
-    <mergeCell ref="C69:S69"/>
-    <mergeCell ref="M71:S73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="M74:S74"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="M84:S84"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:S76"/>
-    <mergeCell ref="C78:S78"/>
-    <mergeCell ref="C79:S79"/>
-    <mergeCell ref="M81:S83"/>
-    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="D18:S18"/>
+    <mergeCell ref="D19:S19"/>
+    <mergeCell ref="D20:S20"/>
+    <mergeCell ref="C23:S23"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="D17:S17"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="C7:S7"/>
+    <mergeCell ref="C8:S8"/>
+    <mergeCell ref="C9:S9"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:S14"/>
+    <mergeCell ref="C15:S15"/>
+    <mergeCell ref="D16:S16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -3093,8 +3096,8 @@
   </sheetPr>
   <dimension ref="C3:S84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58:J58"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" customHeight="1"/>
@@ -3111,39 +3114,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:19" ht="15" customHeight="1">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="5" spans="3:19" ht="15" customHeight="1">
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="O5" s="20" t="s">
+      <c r="O5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="70">
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="63">
         <v>2000108444</v>
       </c>
-      <c r="S5" s="70"/>
+      <c r="S5" s="63"/>
     </row>
     <row r="6" spans="3:19" ht="15" customHeight="1">
       <c r="C6" s="10"/>
@@ -3151,67 +3154,67 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="3:19" ht="15" customHeight="1">
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="3:19" ht="15" customHeight="1">
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="3:19" ht="15" customHeight="1">
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="60"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="3:19" ht="15" customHeight="1">
       <c r="C10" s="2"/>
@@ -3233,179 +3236,179 @@
       <c r="S10" s="2"/>
     </row>
     <row r="12" spans="3:19" ht="42.75" customHeight="1">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
     </row>
     <row r="13" spans="3:19" ht="7.5" customHeight="1"/>
     <row r="14" spans="3:19" ht="12" customHeight="1">
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="63" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="63"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
     </row>
     <row r="15" spans="3:19" ht="39.75" customHeight="1">
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
     </row>
     <row r="16" spans="3:19" ht="15" customHeight="1">
       <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="52"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
     </row>
     <row r="17" spans="3:19" ht="15" customHeight="1">
       <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
     </row>
     <row r="18" spans="3:19" ht="15" customHeight="1">
       <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
     </row>
     <row r="19" spans="3:19" ht="15" customHeight="1">
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
     </row>
     <row r="20" spans="3:19" ht="15" customHeight="1">
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
     </row>
     <row r="21" spans="3:19" ht="15" customHeight="1">
       <c r="D21" s="8"/>
@@ -3444,190 +3447,190 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="3:19" ht="15" customHeight="1">
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
     </row>
     <row r="25" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="54" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57" t="s">
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="57" t="s">
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="N25" s="59"/>
-      <c r="O25" s="57" t="s">
+      <c r="N25" s="33"/>
+      <c r="O25" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="59"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
     </row>
     <row r="26" spans="3:19" ht="12.75" customHeight="1">
-      <c r="C26" s="45">
+      <c r="C26" s="41">
         <v>1</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="46">
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42">
         <v>2</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="49">
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45">
         <v>3</v>
       </c>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="49">
+      <c r="K26" s="46"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="45">
         <v>4</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="49">
+      <c r="N26" s="47"/>
+      <c r="O26" s="45">
         <v>5</v>
       </c>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="51"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="47"/>
     </row>
     <row r="27" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="64" t="s">
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="64" t="s">
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="65"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="67" t="s">
+      <c r="K27" s="71"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N27" s="68"/>
-      <c r="O27" s="69">
+      <c r="N27" s="74"/>
+      <c r="O27" s="76">
         <v>1</v>
       </c>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="66"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="66"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="72"/>
     </row>
     <row r="29" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="66"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="70"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="72"/>
     </row>
     <row r="30" spans="3:19" ht="47.25" customHeight="1">
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="65"/>
-      <c r="R30" s="65"/>
-      <c r="S30" s="66"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="70"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="72"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1">
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
     </row>
     <row r="34" spans="3:19" ht="6" customHeight="1">
       <c r="C34" s="5"/>
@@ -3659,19 +3662,19 @@
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
-      <c r="I35" s="72" t="s">
+      <c r="I35" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
     </row>
     <row r="36" spans="3:19" ht="18" customHeight="1">
       <c r="C36" s="15">
@@ -3684,19 +3687,19 @@
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
-      <c r="I36" s="72" t="s">
+      <c r="I36" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
     </row>
     <row r="37" spans="3:19" ht="18" customHeight="1">
       <c r="C37" s="15">
@@ -3709,19 +3712,19 @@
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="67"/>
     </row>
     <row r="38" spans="3:19" ht="18" customHeight="1">
       <c r="C38" s="15">
@@ -3734,19 +3737,19 @@
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
-      <c r="I38" s="72" t="s">
+      <c r="I38" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
     </row>
     <row r="39" spans="3:19" ht="18" customHeight="1">
       <c r="C39" s="15">
@@ -3759,19 +3762,19 @@
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
-      <c r="I39" s="72" t="s">
+      <c r="I39" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="67"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="67"/>
+      <c r="S39" s="67"/>
     </row>
     <row r="40" spans="3:19" ht="18" customHeight="1">
       <c r="C40" s="15">
@@ -3784,19 +3787,19 @@
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
-      <c r="I40" s="72">
+      <c r="I40" s="67">
         <v>2000108444</v>
       </c>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="67"/>
+      <c r="S40" s="67"/>
     </row>
     <row r="41" spans="3:19" ht="18" customHeight="1">
       <c r="C41" s="15">
@@ -3809,19 +3812,19 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
-      <c r="I41" s="73">
+      <c r="I41" s="69">
         <v>45232</v>
       </c>
-      <c r="J41" s="73"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
-      <c r="Q41" s="73"/>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="69"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="69"/>
     </row>
     <row r="42" spans="3:19" ht="18" customHeight="1">
       <c r="C42" s="15">
@@ -3834,19 +3837,19 @@
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
-      <c r="I42" s="72" t="s">
+      <c r="I42" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="67"/>
     </row>
     <row r="43" spans="3:19" ht="18" customHeight="1">
       <c r="C43" s="15"/>
@@ -3854,81 +3857,81 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
-      <c r="I43" s="72" t="s">
+      <c r="I43" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="67"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="67"/>
+      <c r="S43" s="67"/>
     </row>
     <row r="44" spans="3:19" ht="7.5" customHeight="1"/>
     <row r="46" spans="3:19" ht="15" customHeight="1">
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
+      <c r="M46" s="62"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
     </row>
     <row r="47" spans="3:19" ht="15" customHeight="1">
       <c r="D47" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="75"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="M47" s="62"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
     </row>
     <row r="48" spans="3:19" ht="15" customHeight="1">
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="75"/>
-      <c r="S48" s="75"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
     </row>
     <row r="49" spans="3:19" ht="15" customHeight="1">
       <c r="C49" s="4"/>
       <c r="D49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="62">
+      <c r="E49" s="66">
         <v>45624</v>
       </c>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
       <c r="H49" s="16"/>
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
-      <c r="M49" s="20" t="s">
+      <c r="M49" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
     </row>
     <row r="50" spans="3:19" ht="15" customHeight="1">
       <c r="C50" s="4"/>
@@ -3948,25 +3951,25 @@
       <c r="S50" s="6"/>
     </row>
     <row r="51" spans="3:19" ht="15" customHeight="1">
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="53"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="53"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="53"/>
+      <c r="S51" s="53"/>
     </row>
     <row r="52" spans="3:19" ht="12">
       <c r="C52" s="14"/>
@@ -3988,13 +3991,13 @@
       <c r="S52" s="16"/>
     </row>
     <row r="53" spans="3:19" ht="12">
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
@@ -4009,13 +4012,13 @@
       <c r="S53" s="16"/>
     </row>
     <row r="54" spans="3:19" ht="12">
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
@@ -4055,14 +4058,14 @@
       <c r="D56" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="72" t="s">
+      <c r="E56" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="67"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="8" t="s">
@@ -4079,44 +4082,44 @@
       <c r="D57" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="76" t="s">
+      <c r="E57" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="74"/>
-      <c r="Q57" s="74"/>
-      <c r="R57" s="74"/>
-      <c r="S57" s="74"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
     </row>
     <row r="58" spans="3:19" ht="18" customHeight="1">
       <c r="C58" s="7"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="76" t="s">
+      <c r="E58" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="F58" s="76"/>
-      <c r="G58" s="76"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="74"/>
-      <c r="R58" s="74"/>
-      <c r="S58" s="74"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
     </row>
     <row r="59" spans="3:19" ht="12">
       <c r="C59" s="7"/>
@@ -4144,14 +4147,14 @@
       <c r="D60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="72" t="s">
+      <c r="E60" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="8" t="s">
@@ -4168,44 +4171,44 @@
       <c r="D61" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="76" t="s">
+      <c r="E61" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
-      <c r="M61" s="77"/>
-      <c r="N61" s="77"/>
-      <c r="O61" s="77"/>
-      <c r="P61" s="77"/>
-      <c r="Q61" s="77"/>
-      <c r="R61" s="77"/>
-      <c r="S61" s="77"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
     </row>
     <row r="62" spans="3:19" ht="18" customHeight="1">
       <c r="C62" s="7"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="76" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="76"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
+      <c r="E62" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="77"/>
-      <c r="O62" s="77"/>
-      <c r="P62" s="77"/>
-      <c r="Q62" s="77"/>
-      <c r="R62" s="77"/>
-      <c r="S62" s="77"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
     </row>
     <row r="63" spans="3:19" ht="12">
       <c r="C63" s="7"/>
@@ -4231,11 +4234,11 @@
       <c r="D64" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="70" t="s">
+      <c r="E64" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="70"/>
-      <c r="G64" s="70"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
@@ -4272,11 +4275,11 @@
       <c r="D66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="62">
+      <c r="E66" s="66">
         <v>45624</v>
       </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="J66" s="6"/>
@@ -4308,46 +4311,46 @@
       <c r="S67" s="6"/>
     </row>
     <row r="68" spans="3:19" ht="15" customHeight="1">
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
     </row>
     <row r="69" spans="3:19" ht="35.25" customHeight="1">
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
     </row>
     <row r="70" spans="3:19" ht="12">
       <c r="C70" s="7"/>
@@ -4377,13 +4380,13 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="32"/>
-      <c r="O71" s="32"/>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="32"/>
+      <c r="M71" s="58"/>
+      <c r="N71" s="58"/>
+      <c r="O71" s="58"/>
+      <c r="P71" s="58"/>
+      <c r="Q71" s="58"/>
+      <c r="R71" s="58"/>
+      <c r="S71" s="58"/>
     </row>
     <row r="72" spans="3:19" ht="15" customHeight="1">
       <c r="C72" s="4"/>
@@ -4394,13 +4397,13 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
+      <c r="Q72" s="58"/>
+      <c r="R72" s="58"/>
+      <c r="S72" s="58"/>
     </row>
     <row r="73" spans="3:19" ht="15" customHeight="1">
       <c r="C73" s="4"/>
@@ -4411,36 +4414,36 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="58"/>
+      <c r="P73" s="58"/>
+      <c r="Q73" s="58"/>
+      <c r="R73" s="58"/>
+      <c r="S73" s="58"/>
     </row>
     <row r="74" spans="3:19" ht="12">
       <c r="C74" s="4"/>
       <c r="D74" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="33"/>
+      <c r="F74" s="59"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="M74" s="22" t="s">
+      <c r="M74" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="23"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="23"/>
     </row>
     <row r="75" spans="3:19" ht="15" customHeight="1">
       <c r="C75" s="4"/>
@@ -4451,78 +4454,78 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="M75" s="22" t="s">
+      <c r="M75" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="N75" s="22"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
     </row>
     <row r="76" spans="3:19" ht="15" customHeight="1">
       <c r="C76" s="4"/>
       <c r="D76" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-      <c r="M76" s="22" t="s">
+      <c r="M76" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="N76" s="22"/>
-      <c r="O76" s="23"/>
-      <c r="P76" s="23"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="23"/>
-      <c r="S76" s="23"/>
+      <c r="N76" s="23"/>
+      <c r="O76" s="61"/>
+      <c r="P76" s="61"/>
+      <c r="Q76" s="61"/>
+      <c r="R76" s="61"/>
+      <c r="S76" s="61"/>
     </row>
     <row r="78" spans="3:19" ht="15" customHeight="1">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="25"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="25"/>
-      <c r="S78" s="25"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+      <c r="J78" s="53"/>
+      <c r="K78" s="53"/>
+      <c r="L78" s="53"/>
+      <c r="M78" s="53"/>
+      <c r="N78" s="53"/>
+      <c r="O78" s="53"/>
+      <c r="P78" s="53"/>
+      <c r="Q78" s="53"/>
+      <c r="R78" s="53"/>
+      <c r="S78" s="53"/>
     </row>
     <row r="79" spans="3:19" ht="12">
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="21"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="21"/>
+      <c r="S79" s="21"/>
     </row>
     <row r="80" spans="3:19" ht="12">
       <c r="C80" s="7"/>
@@ -4544,142 +4547,69 @@
       <c r="S80" s="6"/>
     </row>
     <row r="81" spans="3:19" ht="15" customHeight="1">
-      <c r="M81" s="75"/>
-      <c r="N81" s="75"/>
-      <c r="O81" s="75"/>
-      <c r="P81" s="75"/>
-      <c r="Q81" s="75"/>
-      <c r="R81" s="75"/>
-      <c r="S81" s="75"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="62"/>
+      <c r="O81" s="62"/>
+      <c r="P81" s="62"/>
+      <c r="Q81" s="62"/>
+      <c r="R81" s="62"/>
+      <c r="S81" s="62"/>
     </row>
     <row r="82" spans="3:19" ht="15" customHeight="1">
       <c r="D82" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E82" s="70" t="s">
+      <c r="E82" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="F82" s="70"/>
-      <c r="G82" s="70"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
-      <c r="S82" s="75"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="62"/>
+      <c r="P82" s="62"/>
+      <c r="Q82" s="62"/>
+      <c r="R82" s="62"/>
+      <c r="S82" s="62"/>
     </row>
     <row r="83" spans="3:19" ht="15" customHeight="1">
       <c r="D83" s="6"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="75"/>
-      <c r="S83" s="75"/>
+      <c r="M83" s="62"/>
+      <c r="N83" s="62"/>
+      <c r="O83" s="62"/>
+      <c r="P83" s="62"/>
+      <c r="Q83" s="62"/>
+      <c r="R83" s="62"/>
+      <c r="S83" s="62"/>
     </row>
     <row r="84" spans="3:19" ht="15" customHeight="1">
       <c r="C84" s="4"/>
       <c r="D84" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E84" s="62">
+      <c r="E84" s="66">
         <v>45624</v>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
       <c r="H84" s="16"/>
       <c r="I84" s="16"/>
       <c r="J84" s="16"/>
-      <c r="M84" s="20" t="s">
+      <c r="M84" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="20"/>
-      <c r="S84" s="20"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="21"/>
+      <c r="S84" s="21"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cSzs+QFw9xsGFMBJqrzjUCrH1IEUlWSZV/OXbzTnrG5vxdh9HxszsCJ1eMN3ONHN7Etq4ExXCdb+8wWKpzPreg==" saltValue="eXe6l88JruI86cORzHavWA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="89">
-    <mergeCell ref="C78:S78"/>
-    <mergeCell ref="C79:S79"/>
-    <mergeCell ref="M81:S83"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="O76:S76"/>
-    <mergeCell ref="M61:S62"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="C68:S68"/>
-    <mergeCell ref="C69:S69"/>
-    <mergeCell ref="M74:S74"/>
-    <mergeCell ref="M71:S73"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="M57:S58"/>
-    <mergeCell ref="M46:S48"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C51:S51"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="I39:S39"/>
-    <mergeCell ref="I40:S40"/>
-    <mergeCell ref="I41:S41"/>
-    <mergeCell ref="I42:S42"/>
-    <mergeCell ref="I43:S43"/>
-    <mergeCell ref="C33:S33"/>
-    <mergeCell ref="I35:S35"/>
-    <mergeCell ref="I36:S36"/>
-    <mergeCell ref="I37:S37"/>
-    <mergeCell ref="I38:S38"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C12:S12"/>
-    <mergeCell ref="C7:S7"/>
-    <mergeCell ref="C8:S8"/>
-    <mergeCell ref="C3:S3"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:S27"/>
     <mergeCell ref="E84:G84"/>
     <mergeCell ref="M84:S84"/>
     <mergeCell ref="C9:S9"/>
@@ -4696,6 +4626,79 @@
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="O25:S25"/>
     <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="C12:S12"/>
+    <mergeCell ref="C7:S7"/>
+    <mergeCell ref="C8:S8"/>
+    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="C33:S33"/>
+    <mergeCell ref="I35:S35"/>
+    <mergeCell ref="I36:S36"/>
+    <mergeCell ref="I37:S37"/>
+    <mergeCell ref="I38:S38"/>
+    <mergeCell ref="I39:S39"/>
+    <mergeCell ref="I40:S40"/>
+    <mergeCell ref="I41:S41"/>
+    <mergeCell ref="I42:S42"/>
+    <mergeCell ref="I43:S43"/>
+    <mergeCell ref="M57:S58"/>
+    <mergeCell ref="M46:S48"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C51:S51"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="M61:S62"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="C68:S68"/>
+    <mergeCell ref="C69:S69"/>
+    <mergeCell ref="M74:S74"/>
+    <mergeCell ref="M71:S73"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="C78:S78"/>
+    <mergeCell ref="C79:S79"/>
+    <mergeCell ref="M81:S83"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="O76:S76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -4709,6 +4712,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010059B85F8020B40D438D16E95425C555FF" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e64711e2defabb373638012a6a6ee1fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32f320ee-a3ee-4b2d-9186-6323b567c944" xmlns:ns3="db7ba967-41c7-4536-b0cf-7283ce76498a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6166fd78f08f12f57be6902d6d29dc19" ns2:_="" ns3:_="">
     <xsd:import namespace="32f320ee-a3ee-4b2d-9186-6323b567c944"/>
@@ -4931,23 +4949,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4FF2E2B-26AC-4BEB-B9FD-9FD534EA86AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC1B3159-8A71-4D14-81F5-0E94D689001F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4955,5 +4958,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC1B3159-8A71-4D14-81F5-0E94D689001F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4FF2E2B-26AC-4BEB-B9FD-9FD534EA86AE}"/>
 </file>